--- a/output/5Y_P18_KFSDIV.xlsx
+++ b/output/5Y_P18_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.835</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.4216</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2404</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.382</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>11.9583</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.2036</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9136</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.4338</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9657</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3568</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2487</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3991</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.5985</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.6955</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3398</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.8469</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.129</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.716</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.4613</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.6545</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2345</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.1636</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.8145</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2352</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -5038,10 +5041,10 @@
         <v>130351.3155</v>
       </c>
       <c r="K14" s="1">
-        <v>111449.5687</v>
+        <v>111455.9287</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5018</v>
+        <v>13.5026</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -5091,10 +5094,10 @@
         <v>128213.4255</v>
       </c>
       <c r="K15" s="1">
-        <v>126492.0302</v>
+        <v>126498.3903</v>
       </c>
       <c r="L15" s="1">
-        <v>13.5581</v>
+        <v>13.5588</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -5144,10 +5147,10 @@
         <v>139743.3783</v>
       </c>
       <c r="K16" s="1">
-        <v>150497.7207</v>
+        <v>150504.0808</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3387</v>
+        <v>13.3392</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -5197,10 +5200,10 @@
         <v>149549.9063</v>
       </c>
       <c r="K17" s="1">
-        <v>160497.7207</v>
+        <v>160504.0808</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2786</v>
+        <v>13.2791</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -5250,10 +5253,10 @@
         <v>171429.9258</v>
       </c>
       <c r="K18" s="1">
-        <v>170497.7207</v>
+        <v>170504.0808</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2251</v>
+        <v>13.2256</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -5303,10 +5306,10 @@
         <v>187361.9458</v>
       </c>
       <c r="K19" s="1">
-        <v>174523.0388</v>
+        <v>174529.3989</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2181</v>
+        <v>13.2185</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -5356,10 +5359,10 @@
         <v>204458.6908</v>
       </c>
       <c r="K20" s="1">
-        <v>178591.1874</v>
+        <v>178597.5475</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2217</v>
+        <v>13.2222</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -5409,10 +5412,10 @@
         <v>230743.7448</v>
       </c>
       <c r="K21" s="1">
-        <v>181489.7627</v>
+        <v>181496.1228</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2321</v>
+        <v>13.2326</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -5462,10 +5465,10 @@
         <v>250818.0036</v>
       </c>
       <c r="K22" s="1">
-        <v>181270.5895</v>
+        <v>181277.8244</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2306</v>
+        <v>13.2311</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -5515,10 +5518,10 @@
         <v>240417.7531</v>
       </c>
       <c r="K23" s="1">
-        <v>181196.0329</v>
+        <v>181203.5657</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2298</v>
+        <v>13.2304</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -5568,10 +5571,10 @@
         <v>260489.316</v>
       </c>
       <c r="K24" s="1">
-        <v>211718.1619</v>
+        <v>211725.6947</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3223</v>
+        <v>13.3227</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -5621,10 +5624,10 @@
         <v>271574.8454</v>
       </c>
       <c r="K25" s="1">
-        <v>217711.8647</v>
+        <v>217719.3974</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3438</v>
+        <v>13.3443</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -5674,10 +5677,10 @@
         <v>280258.2917</v>
       </c>
       <c r="K26" s="1">
-        <v>226638.0588</v>
+        <v>226645.5916</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3764</v>
+        <v>13.3768</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -5727,10 +5730,10 @@
         <v>319325.2656</v>
       </c>
       <c r="K27" s="1">
-        <v>237964.2001</v>
+        <v>237971.7328</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4111</v>
+        <v>13.4115</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -5780,10 +5783,10 @@
         <v>329879.2381</v>
       </c>
       <c r="K28" s="1">
-        <v>226430.3148</v>
+        <v>226483.9477</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3249</v>
+        <v>13.3281</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -5833,10 +5836,10 @@
         <v>327205.0757</v>
       </c>
       <c r="K29" s="1">
-        <v>235914.23</v>
+        <v>235967.8628</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3973</v>
+        <v>13.4004</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -5886,10 +5889,10 @@
         <v>369047.4384</v>
       </c>
       <c r="K30" s="1">
-        <v>258641.2641</v>
+        <v>258694.897</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5005</v>
+        <v>13.5033</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -5939,10 +5942,10 @@
         <v>392339.9651</v>
       </c>
       <c r="K31" s="1">
-        <v>252531.902</v>
+        <v>252609.9455</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4582</v>
+        <v>13.4624</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -5992,10 +5995,10 @@
         <v>406612.581</v>
       </c>
       <c r="K32" s="1">
-        <v>249226.1754</v>
+        <v>249317.4188</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4278</v>
+        <v>13.4327</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -6045,10 +6048,10 @@
         <v>441961.481</v>
       </c>
       <c r="K33" s="1">
-        <v>254976.5129</v>
+        <v>255067.7563</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4838</v>
+        <v>13.4886</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -6098,10 +6101,10 @@
         <v>447890.444</v>
       </c>
       <c r="K34" s="1">
-        <v>252121.5552</v>
+        <v>252224.2076</v>
       </c>
       <c r="L34" s="1">
-        <v>13.4513</v>
+        <v>13.4568</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -6151,10 +6154,10 @@
         <v>465148.8545</v>
       </c>
       <c r="K35" s="1">
-        <v>266249.0246</v>
+        <v>266351.677</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5994</v>
+        <v>13.6046</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -6204,10 +6207,10 @@
         <v>454075.3493</v>
       </c>
       <c r="K36" s="1">
-        <v>285881.61</v>
+        <v>285984.2625</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7623</v>
+        <v>13.7673</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -6257,10 +6260,10 @@
         <v>446869.1233</v>
       </c>
       <c r="K37" s="1">
-        <v>317000.9526</v>
+        <v>317103.605</v>
       </c>
       <c r="L37" s="1">
-        <v>13.909</v>
+        <v>13.9135</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -6310,10 +6313,10 @@
         <v>416655.6014</v>
       </c>
       <c r="K38" s="1">
-        <v>344191.4941</v>
+        <v>344294.1466</v>
       </c>
       <c r="L38" s="1">
-        <v>13.966</v>
+        <v>13.9701</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.835</v>
@@ -6363,10 +6366,10 @@
         <v>461124.2373</v>
       </c>
       <c r="K39" s="1">
-        <v>394497.4853</v>
+        <v>394600.1377</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8395</v>
+        <v>13.8431</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.4216</v>
@@ -6416,10 +6419,10 @@
         <v>487238.177</v>
       </c>
       <c r="K40" s="1">
-        <v>380863.52</v>
+        <v>381020.6583</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8387</v>
+        <v>13.8444</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2404</v>
@@ -6469,10 +6472,10 @@
         <v>465293.6631</v>
       </c>
       <c r="K41" s="1">
-        <v>374725.0698</v>
+        <v>374906.7186</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8291</v>
+        <v>13.8358</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.382</v>
@@ -6522,10 +6525,10 @@
         <v>458947.0066</v>
       </c>
       <c r="K42" s="1">
-        <v>416837.8202</v>
+        <v>417019.469</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7701</v>
+        <v>13.7761</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>11.9583</v>
@@ -6575,10 +6578,10 @@
         <v>454774.6786</v>
       </c>
       <c r="K43" s="1">
-        <v>452915.3487</v>
+        <v>453096.9975</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6506</v>
+        <v>13.6561</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.2036</v>
@@ -6628,10 +6631,10 @@
         <v>473293.3351</v>
       </c>
       <c r="K44" s="1">
-        <v>477039.885</v>
+        <v>477221.5338</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5552</v>
+        <v>13.5604</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9136</v>
@@ -6681,10 +6684,10 @@
         <v>520974.9326</v>
       </c>
       <c r="K45" s="1">
-        <v>478430.3496</v>
+        <v>478611.9984</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5509</v>
+        <v>13.5561</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.4338</v>
@@ -6734,10 +6737,10 @@
         <v>548697.4299</v>
       </c>
       <c r="K46" s="1">
-        <v>463352.2053</v>
+        <v>463594.0991</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5718</v>
+        <v>13.5789</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9657</v>
@@ -6787,10 +6790,10 @@
         <v>543019.3088999999</v>
       </c>
       <c r="K47" s="1">
-        <v>455598.7187</v>
+        <v>455871.6018</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5737</v>
+        <v>13.5818</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3568</v>
@@ -6840,10 +6843,10 @@
         <v>575853.6814</v>
       </c>
       <c r="K48" s="1">
-        <v>481379.8316</v>
+        <v>481652.7147</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5412</v>
+        <v>13.5489</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2487</v>
@@ -6893,10 +6896,10 @@
         <v>582049.2838</v>
       </c>
       <c r="K49" s="1">
-        <v>477489.4132</v>
+        <v>477777.848</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5425</v>
+        <v>13.5507</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3991</v>
@@ -6946,10 +6949,10 @@
         <v>597442.9677</v>
       </c>
       <c r="K50" s="1">
-        <v>491349.1445</v>
+        <v>491637.5792</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5348</v>
+        <v>13.5428</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.5985</v>
@@ -6999,10 +7002,10 @@
         <v>627785.5949</v>
       </c>
       <c r="K51" s="1">
-        <v>495918.3686</v>
+        <v>496206.8033</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5338</v>
+        <v>13.5417</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.6955</v>
@@ -7052,10 +7055,10 @@
         <v>641341.0893</v>
       </c>
       <c r="K52" s="1">
-        <v>498637.2844</v>
+        <v>498925.7191</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5343</v>
+        <v>13.5421</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3398</v>
@@ -7105,10 +7108,10 @@
         <v>638069.1229</v>
       </c>
       <c r="K53" s="1">
-        <v>505096.7295</v>
+        <v>505385.1642</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5367</v>
+        <v>13.5444</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.8469</v>
@@ -7158,10 +7161,10 @@
         <v>638837.1775</v>
       </c>
       <c r="K54" s="1">
-        <v>528436.1436</v>
+        <v>528724.5784</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5291</v>
+        <v>13.5365</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.129</v>
@@ -7211,10 +7214,10 @@
         <v>660356.6483</v>
       </c>
       <c r="K55" s="1">
-        <v>557766.5153</v>
+        <v>558054.95</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4929</v>
+        <v>13.4999</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.716</v>
@@ -7264,10 +7267,10 @@
         <v>653372.8205</v>
       </c>
       <c r="K56" s="1">
-        <v>556123.3590000001</v>
+        <v>556418.3637</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4939</v>
+        <v>13.5011</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.4613</v>
@@ -7317,10 +7320,10 @@
         <v>663375.2546</v>
       </c>
       <c r="K57" s="1">
-        <v>583215.4147</v>
+        <v>583510.4194</v>
       </c>
       <c r="L57" s="1">
-        <v>13.457</v>
+        <v>13.4638</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.6545</v>
@@ -7370,10 +7373,10 @@
         <v>681972.5384</v>
       </c>
       <c r="K58" s="1">
-        <v>604316.5584</v>
+        <v>604611.5632</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4206</v>
+        <v>13.4271</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2345</v>
@@ -7423,10 +7426,10 @@
         <v>673047.2825</v>
       </c>
       <c r="K59" s="1">
-        <v>605640.2391</v>
+        <v>605935.2438000001</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4189</v>
+        <v>13.4254</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.1636</v>
@@ -7476,10 +7479,10 @@
         <v>691758.874</v>
       </c>
       <c r="K60" s="1">
-        <v>634676.2611999999</v>
+        <v>634971.2659</v>
       </c>
       <c r="L60" s="1">
-        <v>13.361</v>
+        <v>13.3672</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.8145</v>
@@ -7529,10 +7532,10 @@
         <v>684772.1817</v>
       </c>
       <c r="K61" s="1">
-        <v>648088.2466</v>
+        <v>648383.2514</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3345</v>
+        <v>13.3405</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2352</v>
@@ -7582,10 +7585,10 @@
         <v>665241.4473</v>
       </c>
       <c r="K62" s="1">
-        <v>675129.3922</v>
+        <v>675424.3969000001</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2673</v>
+        <v>13.2731</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -8350,10 +8353,10 @@
         <v>130447.6026</v>
       </c>
       <c r="K14" s="1">
-        <v>114637.6119</v>
+        <v>114642.8895</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5103</v>
+        <v>13.5109</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -8403,10 +8406,10 @@
         <v>127927.986</v>
       </c>
       <c r="K15" s="1">
-        <v>130439.2091</v>
+        <v>130444.4867</v>
       </c>
       <c r="L15" s="1">
-        <v>13.5666</v>
+        <v>13.5672</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -8456,10 +8459,10 @@
         <v>139469.8384</v>
       </c>
       <c r="K16" s="1">
-        <v>150669.6216</v>
+        <v>150674.8992</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3801</v>
+        <v>13.3806</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -8509,10 +8512,10 @@
         <v>149276.6469</v>
       </c>
       <c r="K17" s="1">
-        <v>160669.6216</v>
+        <v>160674.8992</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3171</v>
+        <v>13.3175</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -8562,10 +8565,10 @@
         <v>171135.6255</v>
       </c>
       <c r="K18" s="1">
-        <v>170669.6216</v>
+        <v>170674.8992</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2611</v>
+        <v>13.2616</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -8615,10 +8618,10 @@
         <v>187282.4827</v>
       </c>
       <c r="K19" s="1">
-        <v>181981.4567</v>
+        <v>181986.7343</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2399</v>
+        <v>13.2403</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -8668,10 +8671,10 @@
         <v>204687.1725</v>
       </c>
       <c r="K20" s="1">
-        <v>186693.065</v>
+        <v>186698.3426</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2434</v>
+        <v>13.2437</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -8721,10 +8724,10 @@
         <v>231708.1684</v>
       </c>
       <c r="K21" s="1">
-        <v>190222.9357</v>
+        <v>190228.2133</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2551</v>
+        <v>13.2555</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -8774,10 +8777,10 @@
         <v>252274.4077</v>
       </c>
       <c r="K22" s="1">
-        <v>190526.7194</v>
+        <v>190531.997</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2572</v>
+        <v>13.2575</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -8827,10 +8830,10 @@
         <v>240819.1738</v>
       </c>
       <c r="K23" s="1">
-        <v>191010.1546</v>
+        <v>191015.4322</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2618</v>
+        <v>13.2622</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -8880,10 +8883,10 @@
         <v>261419.0408</v>
       </c>
       <c r="K24" s="1">
-        <v>223698.1851</v>
+        <v>223703.4627</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3512</v>
+        <v>13.3516</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -8933,10 +8936,10 @@
         <v>272564.0093</v>
       </c>
       <c r="K25" s="1">
-        <v>230636.5703</v>
+        <v>230641.8479</v>
       </c>
       <c r="L25" s="1">
-        <v>13.374</v>
+        <v>13.3743</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -8986,10 +8989,10 @@
         <v>281166.4101</v>
       </c>
       <c r="K26" s="1">
-        <v>240719.695</v>
+        <v>240724.9726</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4075</v>
+        <v>13.4078</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -9039,10 +9042,10 @@
         <v>322022.9653</v>
       </c>
       <c r="K27" s="1">
-        <v>253399.2646</v>
+        <v>253404.5422</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4426</v>
+        <v>13.4429</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -9092,10 +9095,10 @@
         <v>332612.9867</v>
       </c>
       <c r="K28" s="1">
-        <v>241853.2094</v>
+        <v>241904.6357</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3629</v>
+        <v>13.3658</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -9145,10 +9148,10 @@
         <v>329076.7836</v>
       </c>
       <c r="K29" s="1">
-        <v>252691.0801</v>
+        <v>252742.5064</v>
       </c>
       <c r="L29" s="1">
-        <v>13.439</v>
+        <v>13.4417</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -9198,10 +9201,10 @@
         <v>373118.5919</v>
       </c>
       <c r="K30" s="1">
-        <v>277725.479</v>
+        <v>277776.9053</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5417</v>
+        <v>13.5442</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -9251,10 +9254,10 @@
         <v>397384.8624</v>
       </c>
       <c r="K31" s="1">
-        <v>271982.0159</v>
+        <v>272056.391</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5054</v>
+        <v>13.5091</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -9304,10 +9307,10 @@
         <v>411982.1995</v>
       </c>
       <c r="K32" s="1">
-        <v>269261.1004</v>
+        <v>269346.3402</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4826</v>
+        <v>13.4868</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -9357,10 +9360,10 @@
         <v>449289.5891</v>
       </c>
       <c r="K33" s="1">
-        <v>276305.8845</v>
+        <v>276391.1243</v>
       </c>
       <c r="L33" s="1">
-        <v>13.545</v>
+        <v>13.5492</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -9410,10 +9413,10 @@
         <v>454886.6832</v>
       </c>
       <c r="K34" s="1">
-        <v>274114.1496</v>
+        <v>274208.1479</v>
       </c>
       <c r="L34" s="1">
-        <v>13.5223</v>
+        <v>13.527</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -9463,10 +9466,10 @@
         <v>472706.6274</v>
       </c>
       <c r="K35" s="1">
-        <v>290312.1899</v>
+        <v>290406.1883</v>
       </c>
       <c r="L35" s="1">
-        <v>13.6757</v>
+        <v>13.6801</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -9516,10 +9519,10 @@
         <v>459794.5516</v>
       </c>
       <c r="K36" s="1">
-        <v>312549.6155</v>
+        <v>312643.6139</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8409</v>
+        <v>13.8451</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -9569,10 +9572,10 @@
         <v>451038.4645</v>
       </c>
       <c r="K37" s="1">
-        <v>347359.8893</v>
+        <v>347453.8877</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9843</v>
+        <v>13.9881</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -9622,10 +9625,10 @@
         <v>417094.6306</v>
       </c>
       <c r="K38" s="1">
-        <v>378006.6245</v>
+        <v>378100.6229</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0372</v>
+        <v>14.0407</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.835</v>
@@ -9675,10 +9678,10 @@
         <v>464819.5702</v>
       </c>
       <c r="K39" s="1">
-        <v>434018.7351</v>
+        <v>434112.7335</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8989</v>
+        <v>13.9019</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.4216</v>
@@ -9728,10 +9731,10 @@
         <v>492517.5311</v>
       </c>
       <c r="K40" s="1">
-        <v>420159.1224</v>
+        <v>420308.5085</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9001</v>
+        <v>13.905</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2404</v>
@@ -9781,10 +9784,10 @@
         <v>467342.4221</v>
       </c>
       <c r="K41" s="1">
-        <v>414525.439</v>
+        <v>414697.32</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8929</v>
+        <v>13.8987</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.382</v>
@@ -9834,10 +9837,10 @@
         <v>459264.4049</v>
       </c>
       <c r="K42" s="1">
-        <v>462037.5607</v>
+        <v>462209.4417</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8258</v>
+        <v>13.831</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>11.9583</v>
@@ -9887,10 +9890,10 @@
         <v>453573.9033</v>
       </c>
       <c r="K43" s="1">
-        <v>503039.0322</v>
+        <v>503210.9132</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6981</v>
+        <v>13.7028</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.2036</v>
@@ -9940,10 +9943,10 @@
         <v>472979.5633</v>
       </c>
       <c r="K44" s="1">
-        <v>528343.1058</v>
+        <v>528514.9868</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6048</v>
+        <v>13.6092</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9136</v>
@@ -9993,10 +9996,10 @@
         <v>524772.0458</v>
       </c>
       <c r="K45" s="1">
-        <v>533781.013</v>
+        <v>533952.894</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5892</v>
+        <v>13.5936</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.4338</v>
@@ -10046,10 +10049,10 @@
         <v>554540.1906</v>
       </c>
       <c r="K46" s="1">
-        <v>518277.428</v>
+        <v>518511.2538</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6097</v>
+        <v>13.6158</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9657</v>
@@ -10099,10 +10102,10 @@
         <v>547007.1165</v>
       </c>
       <c r="K47" s="1">
-        <v>510933.8708</v>
+        <v>511197.0475</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6118</v>
+        <v>13.6188</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3568</v>
@@ -10152,10 +10155,10 @@
         <v>582577.9943</v>
       </c>
       <c r="K48" s="1">
-        <v>541103.6772</v>
+        <v>541366.8539</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5757</v>
+        <v>13.5823</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2487</v>
@@ -10205,10 +10208,10 @@
         <v>588301.393</v>
       </c>
       <c r="K49" s="1">
-        <v>538113.8378</v>
+        <v>538388.9662</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5768</v>
+        <v>13.5837</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3991</v>
@@ -10258,10 +10261,10 @@
         <v>604374.8284</v>
       </c>
       <c r="K50" s="1">
-        <v>555099.9377</v>
+        <v>555375.0661000001</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5674</v>
+        <v>13.5741</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.5985</v>
@@ -10311,10 +10314,10 @@
         <v>637317.3435</v>
       </c>
       <c r="K51" s="1">
-        <v>561689.8875</v>
+        <v>561965.0159</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5657</v>
+        <v>13.5723</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.6955</v>
@@ -10364,10 +10367,10 @@
         <v>651339.5191</v>
       </c>
       <c r="K52" s="1">
-        <v>566236.8154</v>
+        <v>566511.9438</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5662</v>
+        <v>13.5727</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3398</v>
@@ -10417,10 +10420,10 @@
         <v>646258.5951</v>
       </c>
       <c r="K53" s="1">
-        <v>575063.9942</v>
+        <v>575339.1226999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5685</v>
+        <v>13.575</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.8469</v>
@@ -10470,10 +10473,10 @@
         <v>645709.4905</v>
       </c>
       <c r="K54" s="1">
-        <v>603118.1661</v>
+        <v>603393.2945</v>
       </c>
       <c r="L54" s="1">
-        <v>13.559</v>
+        <v>13.5652</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.129</v>
@@ -10523,10 +10526,10 @@
         <v>668856.1864</v>
       </c>
       <c r="K55" s="1">
-        <v>638098.9604</v>
+        <v>638374.0888</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5195</v>
+        <v>13.5253</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.716</v>
@@ -10576,10 +10579,10 @@
         <v>659413.8893</v>
       </c>
       <c r="K56" s="1">
-        <v>637837.2466</v>
+        <v>638113.4215000001</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5196</v>
+        <v>13.5255</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.4613</v>
@@ -10629,10 +10632,10 @@
         <v>669377.1685</v>
       </c>
       <c r="K57" s="1">
-        <v>670500.8635</v>
+        <v>670777.0384</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4795</v>
+        <v>13.4851</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.6545</v>
@@ -10682,10 +10685,10 @@
         <v>689263.9178000001</v>
       </c>
       <c r="K58" s="1">
-        <v>696405.1305</v>
+        <v>696681.3054</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4398</v>
+        <v>13.4451</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2345</v>
@@ -10735,10 +10738,10 @@
         <v>677422.0823</v>
       </c>
       <c r="K59" s="1">
-        <v>699649.9020999999</v>
+        <v>699926.077</v>
       </c>
       <c r="L59" s="1">
-        <v>13.436</v>
+        <v>13.4413</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.1636</v>
@@ -10788,10 +10791,10 @@
         <v>697455.8968</v>
       </c>
       <c r="K60" s="1">
-        <v>734907.8724</v>
+        <v>735184.0473</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3744</v>
+        <v>13.3794</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.8145</v>
@@ -10841,10 +10844,10 @@
         <v>687747.8135</v>
       </c>
       <c r="K61" s="1">
-        <v>752216.5316</v>
+        <v>752492.7064</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3445</v>
+        <v>13.3494</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2352</v>
@@ -10894,10 +10897,10 @@
         <v>663401.4896</v>
       </c>
       <c r="K62" s="1">
-        <v>785409.4724</v>
+        <v>785685.6473</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2732</v>
+        <v>13.2778</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -12404,10 +12407,10 @@
         <v>335160.1937</v>
       </c>
       <c r="K28" s="1">
-        <v>258953.4689</v>
+        <v>258999.4215</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4192</v>
+        <v>13.4215</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -12457,10 +12460,10 @@
         <v>330686.2758</v>
       </c>
       <c r="K29" s="1">
-        <v>271326.3691</v>
+        <v>271372.3218</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4981</v>
+        <v>13.5004</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -12510,10 +12513,10 @@
         <v>377123.8663</v>
       </c>
       <c r="K30" s="1">
-        <v>298943.2338</v>
+        <v>298989.1864</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5988</v>
+        <v>13.6009</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -12563,10 +12566,10 @@
         <v>402456.286</v>
       </c>
       <c r="K31" s="1">
-        <v>293678.1432</v>
+        <v>293745.1331</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5687</v>
+        <v>13.5718</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -12616,10 +12619,10 @@
         <v>417410.3687</v>
       </c>
       <c r="K32" s="1">
-        <v>291682.7948</v>
+        <v>291757.7522</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5535</v>
+        <v>13.557</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -12669,10 +12672,10 @@
         <v>456872.814</v>
       </c>
       <c r="K33" s="1">
-        <v>300241.3642</v>
+        <v>300316.3216</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6221</v>
+        <v>13.6255</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -12722,10 +12725,10 @@
         <v>462102.8222</v>
       </c>
       <c r="K34" s="1">
-        <v>298879.1102</v>
+        <v>298959.5114</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6094</v>
+        <v>13.613</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -12775,10 +12778,10 @@
         <v>480540.4302</v>
       </c>
       <c r="K35" s="1">
-        <v>317472.7814</v>
+        <v>317553.1827</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7673</v>
+        <v>13.7707</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -12828,10 +12831,10 @@
         <v>465580.3707</v>
       </c>
       <c r="K36" s="1">
-        <v>342713.8742</v>
+        <v>342794.2755</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9337</v>
+        <v>13.937</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -12881,10 +12884,10 @@
         <v>455091.9208</v>
       </c>
       <c r="K37" s="1">
-        <v>381754.7664</v>
+        <v>381835.1676</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0723</v>
+        <v>14.0753</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -12934,10 +12937,10 @@
         <v>416964.8308</v>
       </c>
       <c r="K38" s="1">
-        <v>416391.6641</v>
+        <v>416472.0653</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1199</v>
+        <v>14.1226</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.835</v>
@@ -12987,10 +12990,10 @@
         <v>467257.0789</v>
       </c>
       <c r="K39" s="1">
-        <v>460576.4048</v>
+        <v>460656.8061</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0077</v>
+        <v>14.0102</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.4216</v>
@@ -13040,10 +13043,10 @@
         <v>496721.1486</v>
       </c>
       <c r="K40" s="1">
-        <v>466139.1868</v>
+        <v>466219.588</v>
       </c>
       <c r="L40" s="1">
-        <v>14.006</v>
+        <v>14.0084</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2404</v>
@@ -13093,10 +13096,10 @@
         <v>467886.2433</v>
       </c>
       <c r="K41" s="1">
-        <v>461228.5508</v>
+        <v>461328.5599</v>
       </c>
       <c r="L41" s="1">
-        <v>14.0014</v>
+        <v>14.0044</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.382</v>
@@ -13146,10 +13149,10 @@
         <v>458603.1759</v>
       </c>
       <c r="K42" s="1">
-        <v>503827.1909</v>
+        <v>503927.2</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9361</v>
+        <v>13.9389</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>11.9583</v>
@@ -13199,10 +13202,10 @@
         <v>452485.5807</v>
       </c>
       <c r="K43" s="1">
-        <v>525686.1831</v>
+        <v>525786.1923</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8651</v>
+        <v>13.8677</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.2036</v>
@@ -13252,10 +13255,10 @@
         <v>471931.3508</v>
       </c>
       <c r="K44" s="1">
-        <v>535686.1831</v>
+        <v>535786.1923</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8245</v>
+        <v>13.8271</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9136</v>
@@ -13305,10 +13308,10 @@
         <v>523877.9861</v>
       </c>
       <c r="K45" s="1">
-        <v>545686.1831</v>
+        <v>545786.1923</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7915</v>
+        <v>13.7941</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.4338</v>
@@ -13358,10 +13361,10 @@
         <v>555282.1933</v>
       </c>
       <c r="K46" s="1">
-        <v>569635.8092</v>
+        <v>569735.8184</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7535</v>
+        <v>13.7559</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9657</v>
@@ -13411,10 +13414,10 @@
         <v>545565.7983</v>
       </c>
       <c r="K47" s="1">
-        <v>579202.5999</v>
+        <v>579302.6091</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7485</v>
+        <v>13.7509</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3568</v>
@@ -13464,10 +13467,10 @@
         <v>583654.9142</v>
       </c>
       <c r="K48" s="1">
-        <v>589635.8092</v>
+        <v>589735.8184</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7344</v>
+        <v>13.7367</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2487</v>
@@ -13517,10 +13520,10 @@
         <v>588764.8443999999</v>
       </c>
       <c r="K49" s="1">
-        <v>611010.4672</v>
+        <v>611110.4763</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7218</v>
+        <v>13.724</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3991</v>
@@ -13570,10 +13573,10 @@
         <v>605521.7175</v>
       </c>
       <c r="K50" s="1">
-        <v>621010.4672</v>
+        <v>621110.4763</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7144</v>
+        <v>13.7166</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.5985</v>
@@ -13623,10 +13626,10 @@
         <v>640942.5377</v>
       </c>
       <c r="K51" s="1">
-        <v>631010.4672</v>
+        <v>631110.4763</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7097</v>
+        <v>13.7119</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.6955</v>
@@ -13676,10 +13679,10 @@
         <v>655460.3706</v>
       </c>
       <c r="K52" s="1">
-        <v>651081.3287</v>
+        <v>651181.3378</v>
       </c>
       <c r="L52" s="1">
-        <v>13.7071</v>
+        <v>13.7092</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3398</v>
@@ -13729,10 +13732,10 @@
         <v>648242.7595</v>
       </c>
       <c r="K53" s="1">
-        <v>662977.1861</v>
+        <v>663077.1952</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7074</v>
+        <v>13.7094</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.8469</v>
@@ -13782,10 +13785,10 @@
         <v>646925.4337000001</v>
       </c>
       <c r="K54" s="1">
-        <v>677311.9126</v>
+        <v>677411.9216999999</v>
       </c>
       <c r="L54" s="1">
-        <v>13.7</v>
+        <v>13.702</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.129</v>
@@ -13835,10 +13838,10 @@
         <v>671254.6769</v>
       </c>
       <c r="K55" s="1">
-        <v>700370.8672</v>
+        <v>700470.8763</v>
       </c>
       <c r="L55" s="1">
-        <v>13.671</v>
+        <v>13.673</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.716</v>
@@ -13888,10 +13891,10 @@
         <v>659789.4467</v>
       </c>
       <c r="K56" s="1">
-        <v>710370.8672</v>
+        <v>710470.8763</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6635</v>
+        <v>13.6654</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.4613</v>
@@ -13941,10 +13944,10 @@
         <v>670371.4414</v>
       </c>
       <c r="K57" s="1">
-        <v>720370.8672</v>
+        <v>720470.8763</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6498</v>
+        <v>13.6517</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.6545</v>
@@ -13994,10 +13997,10 @@
         <v>690821.6054</v>
       </c>
       <c r="K58" s="1">
-        <v>744408.2768</v>
+        <v>744508.286</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6088</v>
+        <v>13.6107</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2345</v>
@@ -14047,10 +14050,10 @@
         <v>677520.634</v>
       </c>
       <c r="K59" s="1">
-        <v>754408.2768</v>
+        <v>754508.286</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5956</v>
+        <v>13.5974</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.1636</v>
@@ -14100,10 +14103,10 @@
         <v>698481.9482</v>
       </c>
       <c r="K60" s="1">
-        <v>764408.2768</v>
+        <v>764508.286</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5763</v>
+        <v>13.578</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.8145</v>
@@ -14153,10 +14156,10 @@
         <v>688051.4377</v>
       </c>
       <c r="K61" s="1">
-        <v>789390.3056</v>
+        <v>789490.3147</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5275</v>
+        <v>13.5292</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2352</v>
@@ -14206,10 +14209,10 @@
         <v>663782.5227</v>
       </c>
       <c r="K62" s="1">
-        <v>799390.3056</v>
+        <v>799490.3147</v>
       </c>
       <c r="L62" s="1">
-        <v>13.5034</v>
+        <v>13.5051</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -15716,10 +15719,10 @@
         <v>336258.794</v>
       </c>
       <c r="K28" s="1">
-        <v>278780.7485</v>
+        <v>278786.585</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5351</v>
+        <v>13.5354</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -15769,10 +15772,10 @@
         <v>330764.3163</v>
       </c>
       <c r="K29" s="1">
-        <v>292892.7638</v>
+        <v>292898.6003</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6144</v>
+        <v>13.6146</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -15822,10 +15825,10 @@
         <v>379590.9053</v>
       </c>
       <c r="K30" s="1">
-        <v>319228.3963</v>
+        <v>319234.2328</v>
       </c>
       <c r="L30" s="1">
-        <v>13.696</v>
+        <v>13.6962</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -15875,10 +15878,10 @@
         <v>406091.3774</v>
       </c>
       <c r="K31" s="1">
-        <v>318985.6968</v>
+        <v>318992.503</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6947</v>
+        <v>13.695</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -15928,10 +15931,10 @@
         <v>421437.6563</v>
       </c>
       <c r="K32" s="1">
-        <v>317880.6171</v>
+        <v>317891.836</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6873</v>
+        <v>13.6878</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -15981,10 +15984,10 @@
         <v>463273.1476</v>
       </c>
       <c r="K33" s="1">
-        <v>328206.3573</v>
+        <v>328217.5762</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7602</v>
+        <v>13.7607</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -16034,10 +16037,10 @@
         <v>468096.7874</v>
       </c>
       <c r="K34" s="1">
-        <v>327870.1043</v>
+        <v>327882.6669</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7574</v>
+        <v>13.758</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -16087,10 +16090,10 @@
         <v>487214.2403</v>
       </c>
       <c r="K35" s="1">
-        <v>349235.0503</v>
+        <v>349247.6129</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9167</v>
+        <v>13.9172</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -16140,10 +16143,10 @@
         <v>469970.7724</v>
       </c>
       <c r="K36" s="1">
-        <v>377940.8178</v>
+        <v>377953.3805</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0805</v>
+        <v>14.0809</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -16193,10 +16196,10 @@
         <v>457543.9956</v>
       </c>
       <c r="K37" s="1">
-        <v>421834.8498</v>
+        <v>421847.4125</v>
       </c>
       <c r="L37" s="1">
-        <v>14.2088</v>
+        <v>14.2092</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -16246,10 +16249,10 @@
         <v>415338.1818</v>
       </c>
       <c r="K38" s="1">
-        <v>455709.3779</v>
+        <v>455721.9405</v>
       </c>
       <c r="L38" s="1">
-        <v>14.2418</v>
+        <v>14.2422</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.835</v>
@@ -16299,10 +16302,10 @@
         <v>466800.8777</v>
       </c>
       <c r="K39" s="1">
-        <v>465709.3779</v>
+        <v>465721.9405</v>
       </c>
       <c r="L39" s="1">
-        <v>14.2134</v>
+        <v>14.2138</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.4216</v>
@@ -16352,10 +16355,10 @@
         <v>496918.0269</v>
       </c>
       <c r="K40" s="1">
-        <v>490108.5106</v>
+        <v>490121.0732</v>
       </c>
       <c r="L40" s="1">
-        <v>14.1956</v>
+        <v>14.1959</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2404</v>
@@ -16405,10 +16408,10 @@
         <v>465360.2143</v>
       </c>
       <c r="K41" s="1">
-        <v>500108.5106</v>
+        <v>500121.0732</v>
       </c>
       <c r="L41" s="1">
-        <v>14.2006</v>
+        <v>14.2009</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.382</v>
@@ -16458,10 +16461,10 @@
         <v>457182.0022</v>
       </c>
       <c r="K42" s="1">
-        <v>510108.5106</v>
+        <v>510121.0732</v>
       </c>
       <c r="L42" s="1">
-        <v>14.181</v>
+        <v>14.1814</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>11.9583</v>
@@ -16511,10 +16514,10 @@
         <v>451109.869</v>
       </c>
       <c r="K43" s="1">
-        <v>532786.8021</v>
+        <v>532799.3648</v>
       </c>
       <c r="L43" s="1">
-        <v>14.0952</v>
+        <v>14.0955</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.2036</v>
@@ -16564,10 +16567,10 @@
         <v>470527.4203</v>
       </c>
       <c r="K44" s="1">
-        <v>542786.8021</v>
+        <v>542799.3648</v>
       </c>
       <c r="L44" s="1">
-        <v>14.0496</v>
+        <v>14.0499</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9136</v>
@@ -16617,10 +16620,10 @@
         <v>522350.8751</v>
       </c>
       <c r="K45" s="1">
-        <v>552786.8021</v>
+        <v>552799.3648</v>
       </c>
       <c r="L45" s="1">
-        <v>14.0118</v>
+        <v>14.0121</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.4338</v>
@@ -16670,10 +16673,10 @@
         <v>553693.7450999999</v>
       </c>
       <c r="K46" s="1">
-        <v>576694.9300000001</v>
+        <v>576707.4926999999</v>
       </c>
       <c r="L46" s="1">
-        <v>13.9638</v>
+        <v>13.9641</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9657</v>
@@ -16723,10 +16726,10 @@
         <v>544015.9277999999</v>
       </c>
       <c r="K47" s="1">
-        <v>586694.9300000001</v>
+        <v>586707.4926999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.9549</v>
+        <v>13.9552</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3568</v>
@@ -16776,10 +16779,10 @@
         <v>582036.7781</v>
       </c>
       <c r="K48" s="1">
-        <v>596694.9300000001</v>
+        <v>596707.4926999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.9376</v>
+        <v>13.9379</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2487</v>
@@ -16829,10 +16832,10 @@
         <v>587159.8986</v>
       </c>
       <c r="K49" s="1">
-        <v>618046.2879</v>
+        <v>618058.8504999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.9177</v>
+        <v>13.918</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3991</v>
@@ -16882,10 +16885,10 @@
         <v>603898.5521</v>
       </c>
       <c r="K50" s="1">
-        <v>628046.2879</v>
+        <v>628058.8504999999</v>
       </c>
       <c r="L50" s="1">
-        <v>13.907</v>
+        <v>13.9073</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.5985</v>
@@ -16935,10 +16938,10 @@
         <v>639251.5195000001</v>
       </c>
       <c r="K51" s="1">
-        <v>638046.2879</v>
+        <v>638058.8504999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8992</v>
+        <v>13.8995</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.6955</v>
@@ -16988,10 +16991,10 @@
         <v>653776.8547</v>
       </c>
       <c r="K52" s="1">
-        <v>664304.0355</v>
+        <v>664316.5982</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8882</v>
+        <v>13.8884</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3398</v>
@@ -17041,10 +17044,10 @@
         <v>646497.7582</v>
       </c>
       <c r="K53" s="1">
-        <v>674304.0355</v>
+        <v>674316.5982</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8857</v>
+        <v>13.886</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.8469</v>
@@ -17094,10 +17097,10 @@
         <v>645314.1069</v>
       </c>
       <c r="K54" s="1">
-        <v>684304.0355</v>
+        <v>684316.5982</v>
       </c>
       <c r="L54" s="1">
-        <v>13.8778</v>
+        <v>13.8781</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.129</v>
@@ -17147,10 +17150,10 @@
         <v>669607.7578</v>
       </c>
       <c r="K55" s="1">
-        <v>707415.5118</v>
+        <v>707428.0744</v>
       </c>
       <c r="L55" s="1">
-        <v>13.8425</v>
+        <v>13.8428</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.716</v>
@@ -17200,10 +17203,10 @@
         <v>658194.3257</v>
       </c>
       <c r="K56" s="1">
-        <v>717415.5118</v>
+        <v>717428.0744</v>
       </c>
       <c r="L56" s="1">
-        <v>13.8324</v>
+        <v>13.8327</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.4613</v>
@@ -17253,10 +17256,10 @@
         <v>668774.3344000001</v>
       </c>
       <c r="K57" s="1">
-        <v>727415.5118</v>
+        <v>727428.0744</v>
       </c>
       <c r="L57" s="1">
-        <v>13.8162</v>
+        <v>13.8164</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.6545</v>
@@ -17306,10 +17309,10 @@
         <v>689199.8764</v>
       </c>
       <c r="K58" s="1">
-        <v>751418.9843</v>
+        <v>751431.5469</v>
       </c>
       <c r="L58" s="1">
-        <v>13.7693</v>
+        <v>13.7696</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2345</v>
@@ -17359,10 +17362,10 @@
         <v>675952.7349</v>
       </c>
       <c r="K59" s="1">
-        <v>761418.9843</v>
+        <v>761431.5469</v>
       </c>
       <c r="L59" s="1">
-        <v>13.7538</v>
+        <v>13.754</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.1636</v>
@@ -17412,10 +17415,10 @@
         <v>696888.4568</v>
       </c>
       <c r="K60" s="1">
-        <v>771418.9843</v>
+        <v>771431.5469</v>
       </c>
       <c r="L60" s="1">
-        <v>13.7321</v>
+        <v>13.7323</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.8145</v>
@@ -17465,10 +17468,10 @@
         <v>686503.8143</v>
       </c>
       <c r="K61" s="1">
-        <v>796366.3421</v>
+        <v>796378.9047</v>
       </c>
       <c r="L61" s="1">
-        <v>13.6778</v>
+        <v>13.678</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2352</v>
@@ -17518,10 +17521,10 @@
         <v>662310.7915000001</v>
       </c>
       <c r="K62" s="1">
-        <v>806366.3421</v>
+        <v>806378.9047</v>
       </c>
       <c r="L62" s="1">
-        <v>13.6515</v>
+        <v>13.6517</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5279</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2673</v>
+        <v>13.2731</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2732</v>
+        <v>13.2778</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5034</v>
+        <v>13.5051</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6515</v>
+        <v>13.6517</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>222327.2413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8289</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9849</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8444</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8303</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8213</v>
       </c>
     </row>
   </sheetData>
